--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\skini\pieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4185C68-F180-48DF-BE88-11E21F2D841F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8945FF-34BB-4A83-9FB0-E6A89B6C3CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="-2415" windowWidth="19725" windowHeight="14790" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="720" yWindow="1356" windowWidth="17280" windowHeight="8964" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -393,9 +393,6 @@
     <t>sur orchestrations</t>
   </si>
   <si>
-    <t>Version du 26/8/2020</t>
-  </si>
-  <si>
     <t>opus4.csv</t>
   </si>
   <si>
@@ -441,12 +438,6 @@
     <t>Configuration de la pièce</t>
   </si>
   <si>
-    <t>PIECES AVEC UN SEUL AUTOMATE</t>
-  </si>
-  <si>
-    <t>PIECES AVEC 3 AUTOMATES</t>
-  </si>
-  <si>
     <t>Hope</t>
   </si>
   <si>
@@ -534,9 +525,6 @@
     <t>Reconnaissance de mode</t>
   </si>
   <si>
-    <t>JEUX MUSICAUX</t>
-  </si>
-  <si>
     <t>Funk</t>
   </si>
   <si>
@@ -544,6 +532,54 @@
   </si>
   <si>
     <t>Trio</t>
+  </si>
+  <si>
+    <t>mars2022.js</t>
+  </si>
+  <si>
+    <t>mars2022.csv</t>
+  </si>
+  <si>
+    <t>mars2022.xml</t>
+  </si>
+  <si>
+    <t>mars2022</t>
+  </si>
+  <si>
+    <t>Pour trio à corde avec sélection des articulation des cordes via midiconveter dans les patterns</t>
+  </si>
+  <si>
+    <t>Version du 19/4/2022</t>
+  </si>
+  <si>
+    <t>Pièces Bitwig Studio NodeSkini</t>
+  </si>
+  <si>
+    <t>hiver2022.js</t>
+  </si>
+  <si>
+    <t>hiver2022.csv</t>
+  </si>
+  <si>
+    <t>Hiver 2021 2022 - 5</t>
+  </si>
+  <si>
+    <t>hiver2022.xml</t>
+  </si>
+  <si>
+    <t>Pour démo techno, percu, musique du monde</t>
+  </si>
+  <si>
+    <t>PIECES AVEC 3 AUTOMATES - Skini Hop.js</t>
+  </si>
+  <si>
+    <t>PIECES AVEC UN SEUL AUTOMATE - Skini Hop.js</t>
+  </si>
+  <si>
+    <t>JEUX MUSICAUX - Skini Hop.js</t>
+  </si>
+  <si>
+    <t>Beaucoup d'évolutions techniques par rapport à Hop.js: plus d'automate en dehors de Blockly, différentes synchro possibles, pas de pièce au lancement, simulateur intégré…</t>
   </si>
 </sst>
 </file>
@@ -773,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,6 +925,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,12 +1242,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="C78" sqref="C78"/>
+      <selection pane="topRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,7 +1274,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1577,10 +1616,10 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1604,14 +1643,14 @@
     </row>
     <row r="17" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="B17" s="59"/>
       <c r="J17" s="60"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>75</v>
@@ -2207,7 +2246,7 @@
         <v>108</v>
       </c>
       <c r="P36" s="62" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>44</v>
@@ -2264,16 +2303,16 @@
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="59" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="B47" s="61"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>98</v>
@@ -2335,7 +2374,7 @@
         <v>91</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>98</v>
@@ -2434,7 +2473,7 @@
       <c r="E57" s="40"/>
       <c r="F57" s="50"/>
       <c r="G57" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -2454,10 +2493,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>98</v>
@@ -2511,7 +2550,7 @@
         <v>85</v>
       </c>
       <c r="D61" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="41">
         <v>1</v>
@@ -2520,7 +2559,7 @@
         <v>86</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
@@ -2532,10 +2571,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>98</v>
@@ -2558,22 +2597,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="18">
+        <v>1</v>
+      </c>
+      <c r="F64" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="18">
-        <v>1</v>
-      </c>
-      <c r="F64" s="47" t="s">
-        <v>123</v>
-      </c>
       <c r="G64" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -2581,22 +2620,22 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="41">
+        <v>1</v>
+      </c>
+      <c r="F65" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="41">
-        <v>1</v>
-      </c>
-      <c r="F65" s="50" t="s">
-        <v>123</v>
-      </c>
       <c r="G65" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
@@ -2604,16 +2643,16 @@
     </row>
     <row r="67" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="59" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B67" s="61"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>98</v>
@@ -2625,10 +2664,10 @@
         <v>99</v>
       </c>
       <c r="F69" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
@@ -2636,28 +2675,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E70" s="51">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I70" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -2665,77 +2704,130 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E71" s="51">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E72" s="51">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="51">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>156</v>
+      </c>
+      <c r="I73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E74" s="51"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="33"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="B73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="51">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>145</v>
-      </c>
-      <c r="G73" t="s">
-        <v>159</v>
-      </c>
-      <c r="I73" t="s">
-        <v>166</v>
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="G77" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="I77" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8945FF-34BB-4A83-9FB0-E6A89B6C3CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89497540-04F3-42F5-A749-80AF7C0F9980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1356" windowWidth="17280" windowHeight="8964" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -580,6 +580,33 @@
   </si>
   <si>
     <t>Beaucoup d'évolutions techniques par rapport à Hop.js: plus d'automate en dehors de Blockly, différentes synchro possibles, pas de pièce au lancement, simulateur intégré…</t>
+  </si>
+  <si>
+    <t>espace1.xml</t>
+  </si>
+  <si>
+    <t>espace2.xml</t>
+  </si>
+  <si>
+    <t>espace1.csv</t>
+  </si>
+  <si>
+    <t>espace2.csv</t>
+  </si>
+  <si>
+    <t>espace1</t>
+  </si>
+  <si>
+    <t>espace1.js</t>
+  </si>
+  <si>
+    <t>espace2.js</t>
+  </si>
+  <si>
+    <t>avec du JS dans Blockly</t>
+  </si>
+  <si>
+    <t>En préparation pour Pré fonctionnent en quadri sur le carte Focusrite.</t>
   </si>
 </sst>
 </file>
@@ -1242,12 +1269,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="D78" sqref="D78"/>
+      <selection pane="topRight" activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2618,7 +2645,7 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B65" s="26" t="s">
         <v>121</v>
       </c>
@@ -2641,13 +2668,13 @@
       <c r="I65" s="27"/>
       <c r="J65" s="28"/>
     </row>
-    <row r="67" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="59" t="s">
         <v>181</v>
       </c>
       <c r="B67" s="61"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="54" t="s">
         <v>137</v>
       </c>
@@ -2673,7 +2700,7 @@
       <c r="I69" s="32"/>
       <c r="J69" s="33"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -2699,7 +2726,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2752,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -2751,7 +2778,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -2777,10 +2804,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E74" s="51"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="64" t="s">
         <v>173</v>
       </c>
@@ -2796,7 +2823,7 @@
       <c r="I75" s="32"/>
       <c r="J75" s="33"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>167</v>
       </c>
@@ -2813,7 +2840,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>174</v>
       </c>
@@ -2828,6 +2855,43 @@
       </c>
       <c r="I77" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78" t="s">
+        <v>183</v>
+      </c>
+      <c r="I78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="G79" t="s">
+        <v>184</v>
+      </c>
+      <c r="I79" t="s">
+        <v>191</v>
+      </c>
+      <c r="M79" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89497540-04F3-42F5-A749-80AF7C0F9980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B424E5-F11C-4C52-875C-3860F4BD72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="1320" yWindow="312" windowWidth="19692" windowHeight="11568" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="196">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -607,6 +607,18 @@
   </si>
   <si>
     <t>En préparation pour Pré fonctionnent en quadri sur le carte Focusrite.</t>
+  </si>
+  <si>
+    <t>mystique1</t>
+  </si>
+  <si>
+    <t>mystique1.xml</t>
+  </si>
+  <si>
+    <t>mystiqueElectro.csv</t>
+  </si>
+  <si>
+    <t>Pièces Ableton NodeSkini</t>
   </si>
 </sst>
 </file>
@@ -836,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,8 +872,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -874,8 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -891,7 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,8 +909,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -908,9 +918,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,13 +931,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,16 +949,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,7 +1262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,17 +1270,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="L80" sqref="L80"/>
+      <selection pane="topRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
@@ -1318,7 +1319,6 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="23"/>
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -1342,7 +1342,6 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="23"/>
       <c r="K3" s="12" t="s">
         <v>79</v>
       </c>
@@ -1370,7 +1369,6 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="23"/>
       <c r="K4" s="12" t="s">
         <v>63</v>
       </c>
@@ -1398,7 +1396,6 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="23"/>
       <c r="K5" s="12" t="s">
         <v>64</v>
       </c>
@@ -1426,7 +1423,6 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="23"/>
       <c r="K6" s="12" t="s">
         <v>114</v>
       </c>
@@ -1456,7 +1452,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="13" t="s">
         <v>118</v>
       </c>
       <c r="K7" s="12" t="s">
@@ -1486,7 +1482,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="13" t="s">
         <v>119</v>
       </c>
       <c r="K8" s="11"/>
@@ -1512,7 +1508,6 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="23"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -1536,7 +1531,6 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="23"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -1560,7 +1554,6 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="23"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1584,7 +1577,6 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="23"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -1608,7 +1600,6 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="23"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -1630,7 +1621,6 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="23"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -1654,7 +1644,6 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="23"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -1664,19 +1653,17 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="J16" s="58"/>
+    <row r="16" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53"/>
     </row>
     <row r="17" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="J17" s="60"/>
+      <c r="B17" s="54"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="41" t="s">
         <v>132</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2272,7 +2259,7 @@
       <c r="O36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="62" t="s">
+      <c r="P36" s="56" t="s">
         <v>136</v>
       </c>
       <c r="Q36" s="4" t="s">
@@ -2329,105 +2316,100 @@
       <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="61"/>
+      <c r="B47" s="55"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="33"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="30">
         <v>3</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="33"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="25"/>
+      <c r="D51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="J51" s="24"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="33"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="16" t="s">
@@ -2436,120 +2418,106 @@
       <c r="E53" s="16">
         <v>2</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G53" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="25"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="22"/>
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="23" t="s">
+      <c r="E54" s="36"/>
+      <c r="F54" s="46"/>
+      <c r="G54" t="s">
         <v>102</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="25"/>
+      <c r="J54" s="24"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="22"/>
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="23" t="s">
+      <c r="E55" s="36"/>
+      <c r="F55" s="46"/>
+      <c r="G55" t="s">
         <v>103</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" t="s">
         <v>104</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="25"/>
+      <c r="J55" s="24"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="22"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="23" t="s">
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="46"/>
+      <c r="G56" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" t="s">
         <v>106</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="25"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="27" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="A58" s="23"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="33"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="49" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="18" t="s">
@@ -2558,7 +2526,7 @@
       <c r="E60" s="18">
         <v>1</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F60" s="42" t="s">
         <v>86</v>
       </c>
       <c r="G60" s="19" t="s">
@@ -2569,64 +2537,64 @@
       <c r="J60" s="21"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="26" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="41">
-        <v>1</v>
-      </c>
-      <c r="F61" s="50" t="s">
+      <c r="E61" s="39">
+        <v>1</v>
+      </c>
+      <c r="F61" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="28"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="F62" s="51"/>
+      <c r="A62" s="23"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="33"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="49" t="s">
         <v>120</v>
       </c>
       <c r="D64" s="18" t="s">
@@ -2635,7 +2603,7 @@
       <c r="E64" s="18">
         <v>1</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="44" t="s">
         <v>122</v>
       </c>
       <c r="G64" s="19" t="s">
@@ -2646,59 +2614,59 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="41">
-        <v>1</v>
-      </c>
-      <c r="F65" s="50" t="s">
+      <c r="E65" s="39">
+        <v>1</v>
+      </c>
+      <c r="F65" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G65" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="28"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27"/>
     </row>
     <row r="67" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="61"/>
+      <c r="B67" s="55"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="33"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2713,7 +2681,7 @@
       <c r="D70" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="23">
         <v>1</v>
       </c>
       <c r="F70" t="s">
@@ -2739,7 +2707,7 @@
       <c r="D71" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="23">
         <v>1</v>
       </c>
       <c r="F71" t="s">
@@ -2765,7 +2733,7 @@
       <c r="D72" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="23">
         <v>1</v>
       </c>
       <c r="F72" t="s">
@@ -2791,7 +2759,7 @@
       <c r="D73" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="51">
+      <c r="E73" s="23">
         <v>1</v>
       </c>
       <c r="F73" t="s">
@@ -2805,23 +2773,23 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E74" s="51"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="33"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
@@ -2830,7 +2798,7 @@
       <c r="C76" t="s">
         <v>168</v>
       </c>
-      <c r="F76" s="63" t="s">
+      <c r="F76" s="57" t="s">
         <v>170</v>
       </c>
       <c r="G76" t="s">
@@ -2847,10 +2815,10 @@
       <c r="C77" t="s">
         <v>175</v>
       </c>
-      <c r="F77" s="65" t="s">
+      <c r="F77" t="s">
         <v>176</v>
       </c>
-      <c r="G77" s="65" t="s">
+      <c r="G77" t="s">
         <v>177</v>
       </c>
       <c r="I77" t="s">
@@ -2864,7 +2832,7 @@
       <c r="C78" t="s">
         <v>185</v>
       </c>
-      <c r="F78" s="65" t="s">
+      <c r="F78" t="s">
         <v>187</v>
       </c>
       <c r="G78" t="s">
@@ -2881,7 +2849,7 @@
       <c r="C79" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="65" t="s">
+      <c r="F79" t="s">
         <v>187</v>
       </c>
       <c r="G79" t="s">
@@ -2892,6 +2860,31 @@
       </c>
       <c r="M79" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B424E5-F11C-4C52-875C-3860F4BD72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A785D4-255B-4D64-916A-1D8FE8898B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="312" windowWidth="19692" windowHeight="11568" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="-27915" yWindow="-1110" windowWidth="25110" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="198">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -534,9 +534,6 @@
     <t>Trio</t>
   </si>
   <si>
-    <t>mars2022.js</t>
-  </si>
-  <si>
     <t>mars2022.csv</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
     <t>Pièces Bitwig Studio NodeSkini</t>
   </si>
   <si>
-    <t>hiver2022.js</t>
-  </si>
-  <si>
     <t>hiver2022.csv</t>
   </si>
   <si>
@@ -597,12 +591,6 @@
     <t>espace1</t>
   </si>
   <si>
-    <t>espace1.js</t>
-  </si>
-  <si>
-    <t>espace2.js</t>
-  </si>
-  <si>
     <t>avec du JS dans Blockly</t>
   </si>
   <si>
@@ -619,6 +607,24 @@
   </si>
   <si>
     <t>Pièces Ableton NodeSkini</t>
+  </si>
+  <si>
+    <t>hope.xml</t>
+  </si>
+  <si>
+    <t>avec transposition via CC MIDI</t>
+  </si>
+  <si>
+    <t>trouveLaPercuNode.xml</t>
+  </si>
+  <si>
+    <t>espace2</t>
+  </si>
+  <si>
+    <t>opus4.xml</t>
+  </si>
+  <si>
+    <t>DMFN et transposition</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +706,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +967,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,7 +1276,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1270,12 +1284,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="C87" sqref="C87"/>
+      <selection pane="topRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1316,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1658,7 +1672,7 @@
     </row>
     <row r="17" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" s="54"/>
     </row>
@@ -2317,7 +2331,7 @@
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B47" s="55"/>
     </row>
@@ -2638,7 +2652,7 @@
     </row>
     <row r="67" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B67" s="55"/>
     </row>
@@ -2777,114 +2791,141 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="60"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31" t="s">
+      <c r="F77" t="s">
+        <v>174</v>
+      </c>
+      <c r="G77" t="s">
+        <v>175</v>
+      </c>
+      <c r="I77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" t="s">
+        <v>185</v>
+      </c>
+      <c r="G78" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>168</v>
-      </c>
-      <c r="F76" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" t="s">
-        <v>169</v>
-      </c>
-      <c r="I76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" t="s">
-        <v>176</v>
-      </c>
-      <c r="G77" t="s">
-        <v>177</v>
-      </c>
-      <c r="I77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="I79" t="s">
         <v>187</v>
       </c>
-      <c r="G78" t="s">
-        <v>183</v>
-      </c>
-      <c r="I78" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>189</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="M79" t="s">
         <v>186</v>
       </c>
-      <c r="F79" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79" t="s">
-        <v>184</v>
-      </c>
-      <c r="I79" t="s">
-        <v>191</v>
-      </c>
-      <c r="M79" t="s">
-        <v>190</v>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
+        <v>140</v>
+      </c>
+      <c r="G80" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
+        <v>191</v>
+      </c>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
         <v>192</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I84" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" t="s">
+        <v>196</v>
+      </c>
+      <c r="I85" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A785D4-255B-4D64-916A-1D8FE8898B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B308C9-A3DB-4E8D-9CCD-CDA71B662BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27915" yWindow="-1110" windowWidth="25110" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -624,7 +624,22 @@
     <t>opus4.xml</t>
   </si>
   <si>
-    <t>DMFN et transposition</t>
+    <t>etude1</t>
+  </si>
+  <si>
+    <t>etude2.csv</t>
+  </si>
+  <si>
+    <t>etude2</t>
+  </si>
+  <si>
+    <t>Trio, changementde mode, transposition, cgt de tempo, 39 patterns</t>
+  </si>
+  <si>
+    <t>etude2.xml</t>
+  </si>
+  <si>
+    <t>DMF, tanks, transposition et mvt de tempo</t>
   </si>
 </sst>
 </file>
@@ -1284,12 +1299,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="I86" sqref="I86"/>
+      <selection pane="topRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2875,57 +2890,82 @@
         <v>194</v>
       </c>
     </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="F81" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" t="s">
+        <v>197</v>
+      </c>
+    </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="58" t="s">
+      <c r="C82" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" t="s">
+        <v>201</v>
+      </c>
+      <c r="I82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>190</v>
-      </c>
-      <c r="F83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G83" t="s">
-        <v>189</v>
-      </c>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="F84" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="G84" t="s">
-        <v>192</v>
-      </c>
-      <c r="I84" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>192</v>
+      </c>
+      <c r="I85" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
         <v>120</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>122</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>196</v>
       </c>
-      <c r="I85" t="s">
-        <v>197</v>
+      <c r="I86" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B308C9-A3DB-4E8D-9CCD-CDA71B662BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70965154-95F1-44AC-9E80-726E7D200387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27915" yWindow="-1110" windowWidth="25110" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="-27210" yWindow="-1395" windowWidth="25110" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="210">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -618,9 +618,6 @@
     <t>trouveLaPercuNode.xml</t>
   </si>
   <si>
-    <t>espace2</t>
-  </si>
-  <si>
     <t>opus4.xml</t>
   </si>
   <si>
@@ -640,6 +637,30 @@
   </si>
   <si>
     <t>DMF, tanks, transposition et mvt de tempo</t>
+  </si>
+  <si>
+    <t>wurfelspiel.als</t>
+  </si>
+  <si>
+    <t>wurfelspiel.csv</t>
+  </si>
+  <si>
+    <t>wurfelspiel.xml</t>
+  </si>
+  <si>
+    <t>avec 16 types et 16 tanks. Le trio de Stadler, 96 patterns, transposition, mvt de tempo</t>
+  </si>
+  <si>
+    <t>En préparation pour Modules "Pré" fonctionnent en quadri sur le carte Focusrite.</t>
+  </si>
+  <si>
+    <t>modulePre/orchestre16</t>
+  </si>
+  <si>
+    <t>moduleIZok.csv</t>
+  </si>
+  <si>
+    <t>moduleIZ.xml</t>
   </si>
 </sst>
 </file>
@@ -1299,12 +1320,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="I87" sqref="I87"/>
+      <selection pane="topRight" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2867,13 +2888,13 @@
         <v>184</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G79" t="s">
         <v>182</v>
       </c>
       <c r="I79" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M79" t="s">
         <v>186</v>
@@ -2892,80 +2913,105 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F81" s="57" t="s">
         <v>169</v>
       </c>
       <c r="G81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" t="s">
         <v>198</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G83" t="s">
+        <v>200</v>
+      </c>
+      <c r="I83" t="s">
         <v>199</v>
       </c>
-      <c r="G82" t="s">
-        <v>201</v>
-      </c>
-      <c r="I82" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="58" t="s">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84" t="s">
-        <v>188</v>
-      </c>
-      <c r="G84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F85" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" t="s">
-        <v>192</v>
-      </c>
-      <c r="I85" t="s">
-        <v>193</v>
-      </c>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
+        <v>190</v>
+      </c>
+      <c r="F86" t="s">
+        <v>188</v>
+      </c>
+      <c r="G86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>192</v>
+      </c>
+      <c r="I87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>120</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F88" t="s">
         <v>122</v>
       </c>
-      <c r="G86" t="s">
-        <v>196</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="G88" t="s">
+        <v>195</v>
+      </c>
+      <c r="I88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" t="s">
         <v>202</v>
+      </c>
+      <c r="G89" t="s">
+        <v>204</v>
+      </c>
+      <c r="I89" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70965154-95F1-44AC-9E80-726E7D200387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE66D0B-3743-448C-B79F-C84611D64EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27210" yWindow="-1395" windowWidth="25110" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="-25155" yWindow="-1620" windowWidth="23370" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="217">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -661,6 +661,27 @@
   </si>
   <si>
     <t>moduleIZ.xml</t>
+  </si>
+  <si>
+    <t>Il faut un simulateur en -sim</t>
+  </si>
+  <si>
+    <t>opus4V3.als</t>
+  </si>
+  <si>
+    <t>opus4-4types.csv</t>
+  </si>
+  <si>
+    <t>Essai avec capteurs IZ</t>
+  </si>
+  <si>
+    <t>Orchestre16SkiniIZ.als</t>
+  </si>
+  <si>
+    <t>moduleIZSynthe.xml</t>
+  </si>
+  <si>
+    <t>Avec fichier (de bitwig) son dans Ableton, sur Mac et PC</t>
   </si>
 </sst>
 </file>
@@ -1024,9 +1045,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1064,7 +1085,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1170,7 +1191,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1312,7 +1333,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1320,12 +1341,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="F82" sqref="F82"/>
+      <selection pane="topRight" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2911,7 +2932,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>196</v>
       </c>
@@ -2922,7 +2943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>208</v>
       </c>
@@ -2932,8 +2953,11 @@
       <c r="G82" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>197</v>
       </c>
@@ -2947,7 +2971,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="58" t="s">
         <v>191</v>
       </c>
@@ -2961,7 +2985,7 @@
       <c r="I85" s="59"/>
       <c r="J85" s="59"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>190</v>
       </c>
@@ -2972,7 +2996,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>88</v>
       </c>
@@ -2985,13 +3009,16 @@
       <c r="I87" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="G88" t="s">
         <v>195</v>
@@ -3000,7 +3027,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>203</v>
       </c>
@@ -3012,6 +3039,28 @@
       </c>
       <c r="I89" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" t="s">
+        <v>209</v>
+      </c>
+      <c r="I90" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>208</v>
+      </c>
+      <c r="G91" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BDED3C-3889-47B0-803F-C709FE88D8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781D17B9-19BD-47EE-B76D-B6380E3A6F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-840" windowWidth="30270" windowHeight="14805" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="-26970" yWindow="-3000" windowWidth="25275" windowHeight="14805" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="234">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Pour trio à corde avec sélection des articulation des cordes via midiconveter dans les patterns</t>
   </si>
   <si>
-    <t>Version du 19/4/2022</t>
-  </si>
-  <si>
     <t>Pièces Bitwig Studio NodeSkini</t>
   </si>
   <si>
@@ -564,15 +561,6 @@
     <t>Pour démo techno, percu, musique du monde</t>
   </si>
   <si>
-    <t>PIECES AVEC 3 AUTOMATES - Skini Hop.js</t>
-  </si>
-  <si>
-    <t>PIECES AVEC UN SEUL AUTOMATE - Skini Hop.js</t>
-  </si>
-  <si>
-    <t>JEUX MUSICAUX - Skini Hop.js</t>
-  </si>
-  <si>
     <t>Beaucoup d'évolutions techniques par rapport à Hop.js: plus d'automate en dehors de Blockly, différentes synchro possibles, pas de pièce au lancement, simulateur intégré…</t>
   </si>
   <si>
@@ -703,13 +691,55 @@
   </si>
   <si>
     <t>DMF, tanks, transposition et mvt de tempo avec simulateur en -sim</t>
+  </si>
+  <si>
+    <t>opus4.hh.js</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>reprise d'opus4 en programmation HH avec possibilité de capteurs IZ</t>
+  </si>
+  <si>
+    <t>capteursIZ.hh.js</t>
+  </si>
+  <si>
+    <t>TestCapteursIZ.als</t>
+  </si>
+  <si>
+    <t>programme de test la boite des capteurs IZ</t>
+  </si>
+  <si>
+    <t>En programmation textuelle HipHop</t>
+  </si>
+  <si>
+    <t>capteursIZ.js</t>
+  </si>
+  <si>
+    <t>PIECES AVEC 3 AUTOMATES - Skini sur Hop.js (plus à jour en 2024)</t>
+  </si>
+  <si>
+    <t>JEUX MUSICAUX - Skini Hop.js (plus à jour en 2024)</t>
+  </si>
+  <si>
+    <t>PIECES AVEC UN SEUL AUTOMATE - Skini sur Hop.js (plus à jour en 2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skini sur Node.js </t>
+  </si>
+  <si>
+    <t>En programmation graphique Blockly</t>
+  </si>
+  <si>
+    <t>Version du 30/5/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +755,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,6 +828,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,6 +1092,9 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,12 +1409,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="J96" sqref="J96"/>
+      <selection pane="topRight" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1441,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1750,7 +1797,7 @@
     </row>
     <row r="17" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B17" s="54"/>
     </row>
@@ -2409,7 +2456,7 @@
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="54" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B47" s="55"/>
     </row>
@@ -2705,7 +2752,7 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B65" s="25" t="s">
         <v>121</v>
       </c>
@@ -2728,13 +2775,13 @@
       <c r="I65" s="26"/>
       <c r="J65" s="27"/>
     </row>
-    <row r="67" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="54" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B67" s="55"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
         <v>137</v>
       </c>
@@ -2760,7 +2807,7 @@
       <c r="I69" s="31"/>
       <c r="J69" s="32"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -2786,7 +2833,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2812,7 +2859,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -2838,7 +2885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -2864,256 +2911,331 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E74" s="23"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="58" t="s">
+    <row r="75" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A75" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="55"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="60"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59" t="s">
+      <c r="F79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" t="s">
+        <v>174</v>
+      </c>
+      <c r="I79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" t="s">
+        <v>177</v>
+      </c>
+      <c r="I80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="60"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>167</v>
-      </c>
-      <c r="F76" s="57" t="s">
+      <c r="F81" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" t="s">
+        <v>178</v>
+      </c>
+      <c r="I81" t="s">
+        <v>201</v>
+      </c>
+      <c r="M81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G76" t="s">
-        <v>168</v>
-      </c>
-      <c r="I76" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>173</v>
-      </c>
-      <c r="F77" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" t="s">
-        <v>175</v>
-      </c>
-      <c r="I77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" t="s">
+        <v>204</v>
+      </c>
+      <c r="I84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>193</v>
+      </c>
+      <c r="F85" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" t="s">
+        <v>196</v>
+      </c>
+      <c r="I85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="F88" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" t="s">
         <v>185</v>
       </c>
-      <c r="G78" t="s">
-        <v>181</v>
-      </c>
-      <c r="I78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" t="s">
-        <v>185</v>
-      </c>
-      <c r="G79" t="s">
-        <v>182</v>
-      </c>
-      <c r="I79" t="s">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>188</v>
+      </c>
+      <c r="I89" t="s">
+        <v>189</v>
+      </c>
+      <c r="K89" t="s">
         <v>205</v>
       </c>
-      <c r="M79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
-        <v>148</v>
-      </c>
-      <c r="F80" t="s">
-        <v>140</v>
-      </c>
-      <c r="G80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
-        <v>196</v>
-      </c>
-      <c r="F81" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G81" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F82" t="s">
-        <v>206</v>
-      </c>
-      <c r="G82" t="s">
-        <v>208</v>
-      </c>
-      <c r="I82" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>197</v>
-      </c>
-      <c r="F83" t="s">
-        <v>198</v>
-      </c>
-      <c r="G83" t="s">
-        <v>200</v>
-      </c>
-      <c r="I83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
-        <v>190</v>
-      </c>
-      <c r="F86" t="s">
-        <v>188</v>
-      </c>
-      <c r="G86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>88</v>
-      </c>
-      <c r="F87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" t="s">
-        <v>192</v>
-      </c>
-      <c r="I87" t="s">
-        <v>193</v>
-      </c>
-      <c r="K87" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>211</v>
-      </c>
-      <c r="F88" t="s">
-        <v>210</v>
-      </c>
-      <c r="G88" t="s">
-        <v>195</v>
-      </c>
-      <c r="I88" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>202</v>
-      </c>
-      <c r="F89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G89" t="s">
-        <v>203</v>
-      </c>
-      <c r="I89" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>207</v>
       </c>
       <c r="F90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" t="s">
+        <v>191</v>
+      </c>
+      <c r="I90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" t="s">
+        <v>199</v>
+      </c>
+      <c r="I91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>203</v>
+      </c>
+      <c r="G93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
         <v>213</v>
       </c>
-      <c r="G90" t="s">
+      <c r="F94" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>216</v>
+      </c>
+      <c r="F95" t="s">
+        <v>218</v>
+      </c>
+      <c r="G95" t="s">
+        <v>217</v>
+      </c>
+      <c r="I95" t="s">
         <v>208</v>
       </c>
-      <c r="I90" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>207</v>
-      </c>
-      <c r="G91" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>217</v>
-      </c>
-      <c r="F92" t="s">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s">
+        <v>206</v>
+      </c>
+      <c r="G97" t="s">
+        <v>221</v>
+      </c>
+      <c r="I97" t="s">
+        <v>222</v>
+      </c>
+      <c r="M97" s="63">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" t="s">
         <v>216</v>
       </c>
-      <c r="G92" t="s">
-        <v>218</v>
-      </c>
-      <c r="I92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>220</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F98" t="s">
+        <v>224</v>
+      </c>
+      <c r="G98" t="s">
         <v>221</v>
       </c>
-      <c r="I93" t="s">
-        <v>212</v>
+      <c r="I98" t="s">
+        <v>225</v>
+      </c>
+      <c r="M98" s="63">
+        <v>45413</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit.AD\Documents\nodeskini\pieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781D17B9-19BD-47EE-B76D-B6380E3A6F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B37CF2-7379-47F8-A3E1-D7FCECE40811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="-3000" windowWidth="25275" windowHeight="14805" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="-25920" yWindow="-180" windowWidth="21600" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="235">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>Version du 30/5/2024</t>
+  </si>
+  <si>
+    <t>ATOMS3 arduino ATOMS3_OSC_Skini.ino</t>
   </si>
 </sst>
 </file>
@@ -1411,10 +1414,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="C108" sqref="C108"/>
+      <selection pane="topRight" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,6 +3157,9 @@
       <c r="G93" t="s">
         <v>210</v>
       </c>
+      <c r="I93" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C94" t="s">

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B37CF2-7379-47F8-A3E1-D7FCECE40811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A4E94-C555-45A3-BD4B-5D89F56DF126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25920" yWindow="-180" windowWidth="21600" windowHeight="11325" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="2460" yWindow="732" windowWidth="21600" windowHeight="11328" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="247">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -736,6 +736,42 @@
   </si>
   <si>
     <t>ATOMS3 arduino ATOMS3_OSC_Skini.ino</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie1</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie2et3</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie4</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie5</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie1.csv</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie2.csv</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie5.csv</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie4.csv</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie1.xml</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie2et3.xml</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie4.xml</t>
+  </si>
+  <si>
+    <t>EtudeSkiniHarmonie5.xml</t>
   </si>
 </sst>
 </file>
@@ -1412,12 +1448,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="I93" sqref="I93"/>
+      <selection pane="topRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3177,66 +3213,110 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
+        <v>239</v>
+      </c>
+      <c r="F95" t="s">
+        <v>235</v>
+      </c>
+      <c r="G95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>240</v>
+      </c>
+      <c r="F96" t="s">
+        <v>236</v>
+      </c>
+      <c r="G96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>242</v>
+      </c>
+      <c r="F97" t="s">
+        <v>237</v>
+      </c>
+      <c r="G97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>241</v>
+      </c>
+      <c r="F98" t="s">
+        <v>238</v>
+      </c>
+      <c r="G98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
         <v>216</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F99" t="s">
         <v>218</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G99" t="s">
         <v>217</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I99" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="61" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="61" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>220</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" t="s">
         <v>121</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C101" t="s">
         <v>120</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F101" t="s">
         <v>206</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G101" t="s">
         <v>221</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I101" t="s">
         <v>222</v>
       </c>
-      <c r="M97" s="63">
+      <c r="M101" s="63">
         <v>45413</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>223</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
         <v>227</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C102" t="s">
         <v>216</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F102" t="s">
         <v>224</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G102" t="s">
         <v>221</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I102" t="s">
         <v>225</v>
       </c>
-      <c r="M98" s="63">
+      <c r="M102" s="63">
         <v>45413</v>
       </c>
     </row>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A4E94-C555-45A3-BD4B-5D89F56DF126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA8B79-6D35-4205-8DD9-DFE37ABB359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="732" windowWidth="21600" windowHeight="11328" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
+    <workbookView xWindow="-28920" yWindow="-3180" windowWidth="29040" windowHeight="15840" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1450,10 +1450,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
   <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="C94" sqref="C94"/>
+      <selection pane="topRight" activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,6 +1465,7 @@
     <col min="5" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" customWidth="1"/>
     <col min="10" max="10" width="16.5546875" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" customWidth="1"/>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA8B79-6D35-4205-8DD9-DFE37ABB359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59384A-2E60-4218-BE9E-B68DC96C9B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3180" windowWidth="29040" windowHeight="15840" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="250">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -772,6 +772,15 @@
   </si>
   <si>
     <t>EtudeSkiniHarmonie5.xml</t>
+  </si>
+  <si>
+    <t>opus5.hh.js</t>
+  </si>
+  <si>
+    <t>opus1.hh.js</t>
+  </si>
+  <si>
+    <t>modIZetESP32HH.hh.js</t>
   </si>
 </sst>
 </file>
@@ -1448,12 +1457,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="G106" sqref="G106"/>
+      <selection pane="topRight" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3321,6 +3330,44 @@
         <v>45413</v>
       </c>
     </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="M103" s="63">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>248</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="63">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pieces/Les pièces Skini.xlsx
+++ b/pieces/Les pièces Skini.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berpetit\Documents\nodeskini\pieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59384A-2E60-4218-BE9E-B68DC96C9B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A070F2-ABC1-421C-80FB-96E49DBC8C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3180" windowWidth="29040" windowHeight="15840" xr2:uid="{6D6D9BFB-4BA4-4FFE-8AC7-F35E8058755B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="252">
   <si>
     <t>opus1 skini V2-ABL10.als</t>
   </si>
@@ -781,6 +781,12 @@
   </si>
   <si>
     <t>modIZetESP32HH.hh.js</t>
+  </si>
+  <si>
+    <t>Même base que l'opus2</t>
+  </si>
+  <si>
+    <t>opus2.hh.js</t>
   </si>
 </sst>
 </file>
@@ -1457,12 +1463,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771670C-3569-4306-BADE-9BE1604036BE}">
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="C110" sqref="C110"/>
+      <selection pane="topRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,7 +1808,9 @@
       <c r="B14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3368,6 +3376,20 @@
         <v>203</v>
       </c>
     </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>251</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1</v>
+      </c>
+      <c r="M107" s="63">
+        <v>46023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
